--- a/research/matmul-master/results.xlsx
+++ b/research/matmul-master/results.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chinmaygarg/Box Sync/cs263-project/research/matmul-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB5CB44-6859-7449-9048-3A8178A508F5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F3B4D8-45CC-944A-8036-B868D879D3EB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="28040" windowHeight="16640" activeTab="1" xr2:uid="{74F325F0-6243-AA4C-8826-5AD7F9DE1D95}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28040" windowHeight="16640" activeTab="1" xr2:uid="{74F325F0-6243-AA4C-8826-5AD7F9DE1D95}"/>
   </bookViews>
   <sheets>
-    <sheet name="matmul" sheetId="1" r:id="rId1"/>
-    <sheet name="matmul-boost" sheetId="2" r:id="rId2"/>
+    <sheet name="matmul - clang" sheetId="1" r:id="rId1"/>
+    <sheet name="matmul - gnu" sheetId="3" r:id="rId2"/>
+    <sheet name="matmul-boost" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
   <si>
     <t>O</t>
   </si>
@@ -55,10 +56,43 @@
     <t>Optimizations</t>
   </si>
   <si>
-    <t>Calculation Option</t>
+    <t>Average</t>
   </si>
   <si>
-    <t>Average</t>
+    <t>Calculation Option - Different Algorithm</t>
+  </si>
+  <si>
+    <t>naive</t>
+  </si>
+  <si>
+    <t>transposing</t>
+  </si>
+  <si>
+    <t>vectorized sdot()</t>
+  </si>
+  <si>
+    <t>SSE sdot() - loop tilting</t>
+  </si>
+  <si>
+    <t>vectorized sdot() - SSE</t>
+  </si>
+  <si>
+    <t>no vectorization</t>
+  </si>
+  <si>
+    <t>clang</t>
+  </si>
+  <si>
+    <t>g++-8.3</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>not done</t>
+  </si>
+  <si>
+    <t> 0.441047</t>
   </si>
 </sst>
 </file>
@@ -130,6 +164,3621 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>C++ DMM</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'matmul - clang'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>O</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'matmul - clang'!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>naive</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>transposing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>vectorized sdot() - SSE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SSE sdot() - loop tilting</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vectorized sdot()</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>no vectorization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'matmul - clang'!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.4247899999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0778400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3335900000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4784600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8677700000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4129400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8B8A-824D-BC26-9EC2D464760C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'matmul - clang'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>O1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'matmul - clang'!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>naive</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>transposing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>vectorized sdot() - SSE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SSE sdot() - loop tilting</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vectorized sdot()</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>no vectorization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'matmul - clang'!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.6398000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98357600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20975199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41377199999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98132200000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17288799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8B8A-824D-BC26-9EC2D464760C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'matmul - clang'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>O2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'matmul - clang'!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>naive</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>transposing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>vectorized sdot() - SSE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SSE sdot() - loop tilting</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vectorized sdot()</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>no vectorization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'matmul - clang'!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.3421800000000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.04528</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.228272</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59264799999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0342100000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17338799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8B8A-824D-BC26-9EC2D464760C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'matmul - clang'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>O3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'matmul - clang'!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>naive</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>transposing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>vectorized sdot() - SSE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SSE sdot() - loop tilting</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vectorized sdot()</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>no vectorization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'matmul - clang'!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.6096700000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95490600000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21076</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56199100000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96970299999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17269300000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8B8A-824D-BC26-9EC2D464760C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'matmul - clang'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ofast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'matmul - clang'!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>naive</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>transposing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>vectorized sdot() - SSE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SSE sdot() - loop tilting</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vectorized sdot()</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>no vectorization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'matmul - clang'!$B$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.64236</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.201902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.212976</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31601699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21252599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.163299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8B8A-824D-BC26-9EC2D464760C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1724153088"/>
+        <c:axId val="1724154768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1724153088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1724154768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1724154768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1724153088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>C++ DMM</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'matmul - gnu'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>O</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'matmul - gnu'!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>naive</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>transposing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>vectorized sdot() - SSE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SSE sdot() - loop tilting</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vectorized sdot()</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>no vectorization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'matmul - gnu'!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.3229199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0698099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.65848</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.96912</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.06677</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7073100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-24E5-F448-A63C-EF32FF54A5D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'matmul - gnu'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>O1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'matmul - gnu'!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>naive</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>transposing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>vectorized sdot() - SSE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SSE sdot() - loop tilting</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vectorized sdot()</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>no vectorization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'matmul - gnu'!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.1123799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.03043</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41467700000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42910500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0356099999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41569099999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-24E5-F448-A63C-EF32FF54A5D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'matmul - gnu'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>O2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'matmul - gnu'!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>naive</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>transposing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>vectorized sdot() - SSE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SSE sdot() - loop tilting</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vectorized sdot()</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>no vectorization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'matmul - gnu'!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.0642200000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.03074</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.415464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42593700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.04087</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.407414</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-24E5-F448-A63C-EF32FF54A5D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'matmul - gnu'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>O3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'matmul - gnu'!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>naive</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>transposing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>vectorized sdot() - SSE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SSE sdot() - loop tilting</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vectorized sdot()</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>no vectorization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'matmul - gnu'!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.0375399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98272800000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42484499999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2152099999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.04348</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40347100000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-24E5-F448-A63C-EF32FF54A5D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'matmul - gnu'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ofast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'matmul - gnu'!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>naive</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>transposing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>vectorized sdot() - SSE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SSE sdot() - loop tilting</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vectorized sdot()</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>no vectorization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'matmul - gnu'!$B$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.0442999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.413802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40515800000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44565700000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41065099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-24E5-F448-A63C-EF32FF54A5D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1724153088"/>
+        <c:axId val="1724154768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1724153088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1724154768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1724154768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1724153088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Optimizations - Matrix Multiplications</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'matmul-boost'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'matmul-boost'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>O1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>O2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>O3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ofast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'matmul-boost'!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>44.025066666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.11493333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5884566666666657</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4217699999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7066066666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0DC2-9B4A-BA0D-0DA07A6E0445}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="1704120640"/>
+        <c:axId val="1704122320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1704120640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1704122320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1704122320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1704120640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67CD760B-2F31-7C4D-B2CB-6D9D7DEB7BFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAAE39FB-11BA-8147-9183-695D833C802B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44A1877A-E26D-CC4B-A937-20764DB1FD01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -429,10 +4078,386 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9A6CB2-F3B5-284A-A734-3BA97B4296CC}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7.4247899999999998</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.0778400000000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.3335900000000001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.4784600000000001</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.8677700000000002</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.4129400000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7.6398000000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.98357600000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.20975199999999999</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.41377199999999997</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.98132200000000003</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.17288799999999999</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>8.3421800000000008</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.04528</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.228272</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.59264799999999995</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.0342100000000001</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.17338799999999999</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7.6096700000000004</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.95490600000000003</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.21076</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.56199100000000002</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.96970299999999998</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.17269300000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7.64236</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.201902</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.212976</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.31601699999999999</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.21252599999999999</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.163299</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32609B8-EA14-DC42-8095-D0C36BC6C2A6}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>8.3229199999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.0698099999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.65848</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.96912</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3.06677</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.7073100000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>8.1123799999999999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.03043</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.41467700000000002</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.42910500000000001</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.0356099999999999</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.41569099999999998</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>8.0642200000000006</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.03074</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.415464</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.42593700000000001</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.04087</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.407414</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8.0375399999999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.98272800000000005</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.42484499999999997</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.2152099999999999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.04348</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.40347100000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>8.0442999999999998</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.413802</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.40515800000000002</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.44565700000000003</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.41065099999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5D2F71-AB45-B14B-9491-A9F76C0DDA02}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -445,181 +4470,12 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>7.4247899999999998</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3.0778400000000001</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1.3335900000000001</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1.4784600000000001</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2.8677700000000002</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1.4129400000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>7.6398000000000001</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.98357600000000001</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.20975199999999999</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.41377199999999997</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.98132200000000003</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.17288799999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>8.3421800000000008</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.04528</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.228272</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.59264799999999995</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.0342100000000001</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.17338799999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>7.6096700000000004</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.95490600000000003</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.21076</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.56199100000000002</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.96970299999999998</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.17269300000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>7.64236</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.201902</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.212976</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.31601699999999999</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.21252599999999999</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.163299</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5D2F71-AB45-B14B-9491-A9F76C0DDA02}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -730,5 +4586,6 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/research/matmul-master/results.xlsx
+++ b/research/matmul-master/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chinmaygarg/Box Sync/cs263-project/research/matmul-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F3B4D8-45CC-944A-8036-B868D879D3EB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9F23E0-A2FD-284E-A76E-514A2A8E0672}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28040" windowHeight="16640" activeTab="1" xr2:uid="{74F325F0-6243-AA4C-8826-5AD7F9DE1D95}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
   <si>
     <t>O</t>
   </si>
@@ -78,18 +78,6 @@
   </si>
   <si>
     <t>no vectorization</t>
-  </si>
-  <si>
-    <t>clang</t>
-  </si>
-  <si>
-    <t>g++-8.3</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>not done</t>
   </si>
   <si>
     <t> 0.441047</t>
@@ -4078,10 +4066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9A6CB2-F3B5-284A-A734-3BA97B4296CC}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4095,7 +4083,7 @@
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -4108,7 +4096,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -4128,7 +4116,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4151,7 +4139,7 @@
         <v>1.4129400000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4173,14 +4161,8 @@
       <c r="G4" s="1">
         <v>0.17288799999999999</v>
       </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4202,14 +4184,8 @@
       <c r="G5" s="1">
         <v>0.17338799999999999</v>
       </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4232,7 +4208,7 @@
         <v>0.17269300000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -4266,10 +4242,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32609B8-EA14-DC42-8095-D0C36BC6C2A6}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="K5" sqref="J4:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4283,7 +4259,7 @@
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -4296,7 +4272,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -4316,7 +4292,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4339,7 +4315,7 @@
         <v>1.7073100000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4361,14 +4337,8 @@
       <c r="G4" s="1">
         <v>0.41569099999999998</v>
       </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4390,14 +4360,8 @@
       <c r="G5" s="1">
         <v>0.407414</v>
       </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4420,7 +4384,7 @@
         <v>0.40347100000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -4428,7 +4392,7 @@
         <v>8.0442999999999998</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1">
         <v>0.413802</v>
